--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945FA43-212C-47B9-A797-F5018744F6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B31DF0-185A-4722-9AA5-3DE5A02A1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="948" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,42 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fashionista</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>painter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pianist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soccer_player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scientist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doctor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alien</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alien_girlfriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,7 +81,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>judge</t>
+    <t>여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두꺼비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelUpCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,18 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,13 +476,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -471,13 +496,19 @@
       <c r="D2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>50000</v>
@@ -485,13 +516,19 @@
       <c r="D3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -499,13 +536,19 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>500000</v>
@@ -513,13 +556,19 @@
       <c r="D5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1000000</v>
@@ -527,13 +576,19 @@
       <c r="D6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -541,13 +596,19 @@
       <c r="D7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -555,13 +616,19 @@
       <c r="D8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>50000000</v>
@@ -569,13 +636,19 @@
       <c r="D9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>100000000</v>
@@ -583,13 +656,19 @@
       <c r="D10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
@@ -597,13 +676,19 @@
       <c r="D11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>50000000000</v>
@@ -611,13 +696,19 @@
       <c r="D12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>100000000000</v>
@@ -625,13 +716,19 @@
       <c r="D13">
         <v>1500</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1000000000000</v>
@@ -639,13 +736,19 @@
       <c r="D14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>10000000000000</v>
@@ -653,13 +756,19 @@
       <c r="D15">
         <v>2500</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>100000000000000</v>
@@ -667,13 +776,19 @@
       <c r="D16">
         <v>3000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1000000000000000</v>
@@ -681,19 +796,31 @@
       <c r="D17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>5E+18</v>
       </c>
       <c r="D18">
         <v>5000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>500000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B31DF0-185A-4722-9AA5-3DE5A02A1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92654D62-136B-4EFE-98C1-6BBF5F77EC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4368" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,51 +81,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두꺼비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>levelUpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perSecond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -451,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,18 +482,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -502,13 +510,16 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>50000</v>
@@ -522,13 +533,16 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -542,13 +556,16 @@
       <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>500000</v>
@@ -562,13 +579,16 @@
       <c r="F5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1000000</v>
@@ -582,13 +602,16 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -602,13 +625,16 @@
       <c r="F7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -622,13 +648,16 @@
       <c r="F8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>50000000</v>
@@ -642,13 +671,16 @@
       <c r="F9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>100000000</v>
@@ -662,13 +694,16 @@
       <c r="F10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
@@ -682,8 +717,11 @@
       <c r="F11">
         <v>500000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,8 +740,11 @@
       <c r="F12">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -722,8 +763,11 @@
       <c r="F13">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -742,8 +786,11 @@
       <c r="F14">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -762,8 +809,11 @@
       <c r="F15">
         <v>500000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -782,8 +832,11 @@
       <c r="F16">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -802,8 +855,11 @@
       <c r="F17">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -820,6 +876,9 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>500000000000</v>
+      </c>
+      <c r="G18" s="1">
         <v>500000000000</v>
       </c>
     </row>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92654D62-136B-4EFE-98C1-6BBF5F77EC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56700B3-B6AC-4A79-8347-A8D0E497EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4368" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
+    <sheet name="Realty" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +131,50 @@
   </si>
   <si>
     <t>perSecond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -887,4 +932,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C493F-26DD-4DAC-B9E9-8A1B70C392EE}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>200000000</v>
+      </c>
+      <c r="D2">
+        <v>300000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>500000000</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1000000000</v>
+      </c>
+      <c r="D4">
+        <v>1000000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2000000000</v>
+      </c>
+      <c r="D5">
+        <v>2000000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>5000000000</v>
+      </c>
+      <c r="D6">
+        <v>3000000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>10000000000</v>
+      </c>
+      <c r="D7">
+        <v>5000000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>100000000000</v>
+      </c>
+      <c r="D8">
+        <v>7000000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56700B3-B6AC-4A79-8347-A8D0E497EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3219E4B-A79E-4577-B7CB-02EAAC819650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
     <sheet name="Realty" sheetId="2" r:id="rId2"/>
+    <sheet name="Paint" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +176,34 @@
   </si>
   <si>
     <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가제트박사의 초상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도라버려의 초상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깜찍한 절규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패가 왜이래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼할 수 있을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자라나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C493F-26DD-4DAC-B9E9-8A1B70C392EE}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1113,4 +1142,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD4B5F2-98AA-43CF-BEF1-8728D2F8DCE1}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>200000000000</v>
+      </c>
+      <c r="D2">
+        <v>20000000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>300000000000</v>
+      </c>
+      <c r="D3">
+        <v>30000000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>400000000000</v>
+      </c>
+      <c r="D4">
+        <v>40000000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>500000000000</v>
+      </c>
+      <c r="D5">
+        <v>50000000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>600000000000</v>
+      </c>
+      <c r="D6">
+        <v>60000000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>700000000000</v>
+      </c>
+      <c r="D7">
+        <v>70000000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>40000000000000</v>
+      </c>
+      <c r="D8">
+        <v>4000000000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3219E4B-A79E-4577-B7CB-02EAAC819650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632A2BF-3D73-496E-BDD7-2D34033F4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
     <sheet name="Realty" sheetId="2" r:id="rId2"/>
     <sheet name="Paint" sheetId="3" r:id="rId3"/>
+    <sheet name="Enterprise" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +205,66 @@
   </si>
   <si>
     <t>모자라나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테쓸라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤츄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭소바겐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도요토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플리즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막도널드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스쿡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마도존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD4B5F2-98AA-43CF-BEF1-8728D2F8DCE1}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1321,4 +1382,345 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB846D07-A863-4BB8-BF0C-6BD25AD69B29}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>10000000000000</v>
+      </c>
+      <c r="D2">
+        <v>100000000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>20000000000000</v>
+      </c>
+      <c r="D3">
+        <v>200000000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>30000000000000</v>
+      </c>
+      <c r="D4">
+        <v>300000000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>50000000000000</v>
+      </c>
+      <c r="D5">
+        <v>500000000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>100000000000000</v>
+      </c>
+      <c r="D6">
+        <v>100000000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>200000000000000</v>
+      </c>
+      <c r="D7">
+        <v>2000000000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>300000000000000</v>
+      </c>
+      <c r="D8">
+        <v>3000000000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>500000000000000</v>
+      </c>
+      <c r="D9">
+        <v>5000000000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1000000000000000</v>
+      </c>
+      <c r="D10">
+        <v>10000000000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>2000000000000000</v>
+      </c>
+      <c r="D11">
+        <v>20000000000</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>3000000000000000</v>
+      </c>
+      <c r="D12">
+        <v>30000000000</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>5000000000000000</v>
+      </c>
+      <c r="D13">
+        <v>50000000000</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>1E+16</v>
+      </c>
+      <c r="D14">
+        <v>100000000000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>2E+16</v>
+      </c>
+      <c r="D15">
+        <v>200000000000</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>3E+16</v>
+      </c>
+      <c r="D16">
+        <v>300000000000</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632A2BF-3D73-496E-BDD7-2D34033F4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4579E-754F-4D93-9BCE-4609E4A5E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
     <sheet name="Realty" sheetId="2" r:id="rId2"/>
     <sheet name="Paint" sheetId="3" r:id="rId3"/>
     <sheet name="Enterprise" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbeitHappiness" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +266,70 @@
   </si>
   <si>
     <t>애플들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종무나회관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술의 쩐당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽콘서트장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카네르기홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구경기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨단과학연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신식 종합병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대형 오락실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌니랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑이 이루어지는 빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영원한 약속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽한 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백만평 땅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭한 골프장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB846D07-A863-4BB8-BF0C-6BD25AD69B29}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1723,4 +1788,438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B3747-1477-4750-A7C9-BA97A89B5716}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>500000000000</v>
+      </c>
+      <c r="D2">
+        <v>50000000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>600000000000</v>
+      </c>
+      <c r="D3">
+        <v>60000000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>700000000000</v>
+      </c>
+      <c r="D4">
+        <v>70000000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>800000000000</v>
+      </c>
+      <c r="D5">
+        <v>80000000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>900000000000</v>
+      </c>
+      <c r="D6">
+        <v>90000000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>1000000000000</v>
+      </c>
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>5000000000000</v>
+      </c>
+      <c r="D8">
+        <v>500000000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>10000000000000</v>
+      </c>
+      <c r="D9">
+        <v>1000000000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>50000000000000</v>
+      </c>
+      <c r="D10">
+        <v>5000000000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>100000000000000</v>
+      </c>
+      <c r="D11">
+        <v>10000000000</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>500000000000000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>1000000000000000</v>
+      </c>
+      <c r="D13">
+        <v>1000000000000</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>5000000000000000</v>
+      </c>
+      <c r="D14">
+        <v>5000000000000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>1E+16</v>
+      </c>
+      <c r="D15">
+        <v>10000000000000</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>5E+16</v>
+      </c>
+      <c r="D16">
+        <v>50000000000000</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>1E+17</v>
+      </c>
+      <c r="D17">
+        <v>100000000000000</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>5E+17</v>
+      </c>
+      <c r="D18">
+        <v>500000000000000</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4579E-754F-4D93-9BCE-4609E4A5E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC04115-4F9A-4A3E-87C6-823B6AF73893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
@@ -57,22 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alien_girlfriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>golf_player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,46 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>perSecond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +274,62 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두꺼비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -682,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>50000</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>500000</v>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>1000000</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -834,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>50000000</v>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>100000000</v>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>50000000000</v>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>100000000000</v>
@@ -972,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>1000000000000</v>
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>10000000000000</v>
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>100000000000000</v>
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1000000000000000</v>
@@ -1064,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>5E+18</v>
@@ -1111,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>200000000</v>
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>500000000</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1000000000</v>
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2000000000</v>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5000000000</v>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>10000000000</v>
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>100000000000</v>
@@ -1291,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>200000000000</v>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>300000000000</v>
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>400000000000</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>500000000000</v>
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>600000000000</v>
@@ -1408,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>700000000000</v>
@@ -1428,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>40000000000000</v>
@@ -1471,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>10000000000000</v>
@@ -1508,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>20000000000000</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>30000000000000</v>
@@ -1548,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>50000000000000</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>100000000000000</v>
@@ -1588,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>200000000000000</v>
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>300000000000000</v>
@@ -1628,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>500000000000000</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1000000000000000</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2000000000000000</v>
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>3000000000000000</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>5000000000000000</v>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1E+16</v>
@@ -1748,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2E+16</v>
@@ -1768,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>3E+16</v>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B3747-1477-4750-A7C9-BA97A89B5716}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1811,19 +1811,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>500000000000</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>600000000000</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>700000000000</v>
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>800000000000</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>900000000000</v>
@@ -1946,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1000000000000</v>
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>5000000000000</v>
@@ -1992,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>10000000000000</v>
@@ -2015,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>50000000000000</v>
@@ -2038,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>100000000000000</v>
@@ -2061,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>500000000000000</v>
@@ -2084,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1000000000000000</v>
@@ -2107,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>5000000000000000</v>
@@ -2130,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>1E+16</v>
@@ -2153,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>5E+16</v>
@@ -2176,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1E+17</v>
@@ -2199,7 +2199,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>5E+17</v>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC04115-4F9A-4A3E-87C6-823B6AF73893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B761A7-780F-45C5-A96B-9A7AA380BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Paint" sheetId="3" r:id="rId3"/>
     <sheet name="Enterprise" sheetId="4" r:id="rId4"/>
     <sheet name="ArbeitHappiness" sheetId="5" r:id="rId5"/>
+    <sheet name="City" sheetId="6" r:id="rId6"/>
+    <sheet name="Planet" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,18 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +320,86 @@
   </si>
   <si>
     <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이베이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시드니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런던</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍콩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱가포르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도쿄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴욕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천왕성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해왕성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -682,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -696,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -719,13 +789,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>50000</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -742,13 +812,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>100000</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -765,13 +835,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>500000</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -788,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>1000000</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -811,13 +881,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>5000000</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -834,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>10000000</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -857,13 +927,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>50000000</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -880,13 +950,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>100000000</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -903,13 +973,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
       </c>
       <c r="D11">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -926,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>50000000000</v>
@@ -949,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>100000000000</v>
@@ -972,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>1000000000000</v>
@@ -995,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>10000000000000</v>
@@ -1018,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>100000000000000</v>
@@ -1041,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1000000000000000</v>
@@ -1064,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>5E+18</v>
@@ -1111,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1128,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>200000000</v>
@@ -1148,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>500000000</v>
@@ -1168,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1000000000</v>
@@ -1188,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2000000000</v>
@@ -1208,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5000000000</v>
@@ -1228,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10000000000</v>
@@ -1248,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>100000000000</v>
@@ -1291,16 +1361,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1308,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>200000000000</v>
@@ -1328,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>300000000000</v>
@@ -1348,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>400000000000</v>
@@ -1368,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>500000000000</v>
@@ -1388,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>600000000000</v>
@@ -1408,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>700000000000</v>
@@ -1428,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>40000000000000</v>
@@ -1454,7 +1524,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1471,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1488,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>10000000000000</v>
@@ -1508,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>20000000000000</v>
@@ -1528,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>30000000000000</v>
@@ -1548,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>50000000000000</v>
@@ -1568,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>100000000000000</v>
@@ -1588,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>200000000000000</v>
@@ -1608,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>300000000000000</v>
@@ -1628,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>500000000000000</v>
@@ -1648,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1000000000000000</v>
@@ -1668,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>2000000000000000</v>
@@ -1688,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>3000000000000000</v>
@@ -1708,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>5000000000000000</v>
@@ -1728,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1E+16</v>
@@ -1748,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>2E+16</v>
@@ -1768,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>3E+16</v>
@@ -1811,19 +1881,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1831,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>500000000000</v>
@@ -1854,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>600000000000</v>
@@ -1877,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>700000000000</v>
@@ -1900,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>800000000000</v>
@@ -1923,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>900000000000</v>
@@ -1946,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>1000000000000</v>
@@ -1969,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>5000000000000</v>
@@ -1992,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>10000000000000</v>
@@ -2015,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>50000000000000</v>
@@ -2038,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>100000000000000</v>
@@ -2061,7 +2131,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>500000000000000</v>
@@ -2084,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1000000000000000</v>
@@ -2107,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>5000000000000000</v>
@@ -2130,7 +2200,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>1E+16</v>
@@ -2153,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>5E+16</v>
@@ -2176,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>1E+17</v>
@@ -2199,7 +2269,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>5E+17</v>
@@ -2214,6 +2284,402 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E33FC8-B263-419B-89D4-E3B90D8CB0DF}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1000000000</v>
+      </c>
+      <c r="F2">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>5000000000000000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5000000000</v>
+      </c>
+      <c r="F3">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>1E+16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10000000000</v>
+      </c>
+      <c r="F4">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>5E+16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>50000000000</v>
+      </c>
+      <c r="F5">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>1E+17</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100000000000</v>
+      </c>
+      <c r="F6">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>1E+18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1000000000000</v>
+      </c>
+      <c r="F7">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>1E+19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10000000000000</v>
+      </c>
+      <c r="F8">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>2E+19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>20000000000000</v>
+      </c>
+      <c r="F9">
+        <v>20000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>3E+19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>30000000000000</v>
+      </c>
+      <c r="F10">
+        <v>30000000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>5E+19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>50000000000000</v>
+      </c>
+      <c r="F11">
+        <v>50000000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0CADA9-58F7-4861-8A2B-FEB167516758}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>1E+20</v>
+      </c>
+      <c r="D2">
+        <v>100000000000000</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>2E+20</v>
+      </c>
+      <c r="D3">
+        <v>200000000000000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>3E+20</v>
+      </c>
+      <c r="D4">
+        <v>300000000000000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>5E+20</v>
+      </c>
+      <c r="D5">
+        <v>500000000000000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>1E+21</v>
+      </c>
+      <c r="D6">
+        <v>1000000000000000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>2E+21</v>
+      </c>
+      <c r="D7">
+        <v>2000000000000000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3E+21</v>
+      </c>
+      <c r="D8">
+        <v>3000000000000000</v>
+      </c>
+      <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B761A7-780F-45C5-A96B-9A7AA380BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EA6EB-907B-4EE8-B298-B292A1649DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1521,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB846D07-A863-4BB8-BF0C-6BD25AD69B29}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1533,7 +1533,7 @@
     <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,8 +1552,11 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1572,8 +1575,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1592,8 +1598,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1612,8 +1621,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1632,8 +1644,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1652,8 +1667,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1672,8 +1690,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1692,8 +1713,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1712,8 +1736,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1732,8 +1759,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1752,8 +1782,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1772,8 +1805,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1792,8 +1828,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1812,8 +1851,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1832,8 +1874,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1851,6 +1896,9 @@
       </c>
       <c r="F16">
         <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EA6EB-907B-4EE8-B298-B292A1649DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3BFA6-F1CD-4A8C-9F42-09DAAA354D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,66 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테쓸라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bwm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤츄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭소바겐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타박스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도요토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷플리즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>막도널드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카콜라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄센트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이스쿡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마도존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lock_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +340,62 @@
   </si>
   <si>
     <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내팔 프라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘모스 딱풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존슨즈키드 로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위 과일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한크로 락스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백세 배터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 버터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬는시간 초코바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와보래요 오즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주라 쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달표 식용유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라리 계란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닥터미 에너지바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -789,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>50000</v>
@@ -812,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -835,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>500000</v>
@@ -858,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1000000</v>
@@ -881,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -904,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -927,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>50000000</v>
@@ -950,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>100000000</v>
@@ -973,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
@@ -996,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>50000000000</v>
@@ -1019,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>100000000000</v>
@@ -1042,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1000000000000</v>
@@ -1065,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>10000000000000</v>
@@ -1088,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>100000000000000</v>
@@ -1111,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>1000000000000000</v>
@@ -1134,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>5E+18</v>
@@ -1521,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB846D07-A863-4BB8-BF0C-6BD25AD69B29}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1561,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>10000000000000</v>
@@ -1584,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>20000000000000</v>
@@ -1607,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>30000000000000</v>
@@ -1630,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>50000000000000</v>
@@ -1653,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>100000000000000</v>
@@ -1676,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>200000000000000</v>
@@ -1699,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>300000000000000</v>
@@ -1722,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>500000000000000</v>
@@ -1745,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>1000000000000000</v>
@@ -1768,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>2000000000000000</v>
@@ -1791,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>3000000000000000</v>
@@ -1814,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>5000000000000000</v>
@@ -1837,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>1E+16</v>
@@ -1860,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>2E+16</v>
@@ -1876,29 +1872,6 @@
       </c>
       <c r="G15">
         <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>3E+16</v>
-      </c>
-      <c r="D16">
-        <v>300000000000</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1949,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>500000000000</v>
@@ -1972,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>600000000000</v>
@@ -1995,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>700000000000</v>
@@ -2018,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>800000000000</v>
@@ -2041,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>900000000000</v>
@@ -2064,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1000000000000</v>
@@ -2087,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>5000000000000</v>
@@ -2110,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>10000000000000</v>
@@ -2133,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>50000000000000</v>
@@ -2156,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>100000000000000</v>
@@ -2179,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>500000000000000</v>
@@ -2202,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>1000000000000000</v>
@@ -2225,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>5000000000000000</v>
@@ -2248,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>1E+16</v>
@@ -2271,7 +2244,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>5E+16</v>
@@ -2294,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1E+17</v>
@@ -2317,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>5E+17</v>
@@ -2380,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>1000000000000000</v>
@@ -2400,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>5000000000000000</v>
@@ -2420,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>1E+16</v>
@@ -2440,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>5E+16</v>
@@ -2460,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>1E+17</v>
@@ -2480,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>1E+18</v>
@@ -2500,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>1E+19</v>
@@ -2520,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>2E+19</v>
@@ -2540,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>3E+19</v>
@@ -2560,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>5E+19</v>
@@ -2617,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1E+20</v>
@@ -2634,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>2E+20</v>
@@ -2651,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>3E+20</v>
@@ -2668,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>5E+20</v>
@@ -2685,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1E+21</v>
@@ -2702,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2E+21</v>
@@ -2719,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1">
         <v>3E+21</v>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3BFA6-F1CD-4A8C-9F42-09DAAA354D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72427263-4C19-4DBB-B3BE-21C4A8F11949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1519,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB846D07-A863-4BB8-BF0C-6BD25AD69B29}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1883,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B3747-1477-4750-A7C9-BA97A89B5716}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1894,7 @@
     <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1916,8 +1916,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1939,8 +1942,11 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1962,8 +1968,11 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1985,8 +1994,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2008,8 +2020,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2031,8 +2046,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2054,8 +2072,11 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2077,8 +2098,11 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2100,8 +2124,11 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2123,8 +2150,11 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2146,8 +2176,11 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2169,8 +2202,11 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2192,8 +2228,11 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2215,8 +2254,11 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2238,8 +2280,11 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2261,8 +2306,11 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2284,8 +2332,11 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2306,6 +2357,9 @@
       </c>
       <c r="G18" t="b">
         <v>0</v>
+      </c>
+      <c r="H18">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/Raise the Poor Practice/Assets/xlsx/data.xlsx
+++ b/Raise the Poor Practice/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksh\Documents\raise-the-poor-practice\raise-the-poor-practice\Raise the Poor Practice\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72427263-4C19-4DBB-B3BE-21C4A8F11949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0D499-B499-4E1B-A24E-8C1E661070E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeit" sheetId="1" r:id="rId1"/>
@@ -79,34 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>housing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apartment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buy_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +368,34 @@
   </si>
   <si>
     <t>닥터미 에너지바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단독주택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5층빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20층빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50층빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10층빌딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>50000</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>500000</v>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1000000</v>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10000000</v>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>50000000</v>
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>100000000</v>
@@ -969,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>10000000000</v>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>50000000000</v>
@@ -1015,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>100000000000</v>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1000000000000</v>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>10000000000000</v>
@@ -1084,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>100000000000000</v>
@@ -1107,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>1000000000000000</v>
@@ -1130,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>5E+18</v>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C493F-26DD-4DAC-B9E9-8A1B70C392EE}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1183,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>200000000</v>
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>500000000</v>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1000000000</v>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2000000000</v>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>5000000000</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>10000000000</v>
@@ -1314,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>100000000000</v>
@@ -1363,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>200000000000</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>300000000000</v>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>400000000000</v>
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>500000000000</v>
@@ -1454,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>600000000000</v>
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>700000000000</v>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>40000000000000</v>
@@ -1543,10 +1543,10 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>10000000000000</v>
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>20000000000000</v>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>30000000000000</v>
@@ -1626,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>50000000000000</v>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>100000000000000</v>
@@ -1672,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>200000000000000</v>
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>300000000000000</v>
@@ -1718,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>500000000000000</v>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1000000000000000</v>
@@ -1764,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>2000000000000000</v>
@@ -1787,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>3000000000000000</v>
@@ -1810,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>5000000000000000</v>
@@ -1833,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1E+16</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>2E+16</v>
@@ -1908,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>500000000000</v>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>600000000000</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>700000000000</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>800000000000</v>
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>900000000000</v>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1000000000000</v>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>5000000000000</v>
@@ -2107,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>10000000000000</v>
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>50000000000000</v>
@@ -2159,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>100000000000000</v>
@@ -2185,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>500000000000000</v>
@@ -2211,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1000000000000000</v>
@@ -2237,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>5000000000000000</v>
@@ -2263,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1E+16</v>
@@ -2289,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>5E+16</v>
@@ -2315,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1E+17</v>
@@ -2341,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>5E+17</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>1000000000000000</v>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>5000000000000000</v>
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>1E+16</v>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>5E+16</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>1E+17</v>
@@ -2507,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1E+18</v>
@@ -2527,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1E+19</v>
@@ -2547,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2E+19</v>
@@ -2567,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>3E+19</v>
@@ -2587,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>5E+19</v>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>1E+20</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2E+20</v>
@@ -2678,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>3E+20</v>
@@ -2695,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>5E+20</v>
@@ -2712,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>1E+21</v>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>2E+21</v>
@@ -2746,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>3E+21</v>
